--- a/NEW HR/MENDOZA, MARVIC M.xlsx
+++ b/NEW HR/MENDOZA, MARVIC M.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>12/26-29/2022</t>
+  </si>
+  <si>
+    <t>BDAY 5/8/2023</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1246,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A33" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,7 +1407,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>15.25</v>
+        <v>16.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1414,7 +1417,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>36.25</v>
+        <v>38.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2158,15 +2161,19 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+      <c r="A45" s="40">
+        <v>44986</v>
+      </c>
       <c r="B45" s="20"/>
-      <c r="C45" s="13"/>
+      <c r="C45" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D45" s="39"/>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G45" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
@@ -2174,24 +2181,36 @@
       <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="39"/>
+      <c r="A46" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D46" s="39">
+        <v>1</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G46" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="49">
+        <v>45055</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
       <c r="E47" s="9"/>
@@ -2203,7 +2222,9 @@
       <c r="H47" s="39"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20"/>
+      <c r="K47" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
